--- a/Data/kantonale_vorlagen_list.xlsx
+++ b/Data/kantonale_vorlagen_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Kanton</t>
   </si>
@@ -29,157 +29,172 @@
     <t>Vorlage_i</t>
   </si>
   <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
     <t>SZ</t>
   </si>
   <si>
+    <t>NW</t>
+  </si>
+  <si>
     <t>ZG</t>
   </si>
   <si>
     <t>FR</t>
   </si>
   <si>
+    <t>SO</t>
+  </si>
+  <si>
     <t>BL</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>TI</t>
+    <t>GR</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>255676</t>
-  </si>
-  <si>
-    <t>256592</t>
-  </si>
-  <si>
-    <t>256593</t>
-  </si>
-  <si>
-    <t>256594</t>
-  </si>
-  <si>
-    <t>256595</t>
-  </si>
-  <si>
-    <t>257249</t>
-  </si>
-  <si>
-    <t>257250</t>
-  </si>
-  <si>
-    <t>257345</t>
-  </si>
-  <si>
-    <t>257453</t>
-  </si>
-  <si>
-    <t>258015</t>
-  </si>
-  <si>
-    <t>256544</t>
-  </si>
-  <si>
-    <t>256419</t>
-  </si>
-  <si>
-    <t>257184</t>
-  </si>
-  <si>
-    <t>257529</t>
-  </si>
-  <si>
-    <t>257530</t>
-  </si>
-  <si>
-    <t>256653</t>
-  </si>
-  <si>
-    <t>256654</t>
-  </si>
-  <si>
-    <t>256655</t>
-  </si>
-  <si>
-    <t>256656</t>
-  </si>
-  <si>
-    <t>Änderung vom 13. Dezember 2023 der Geschäftsordnung des Kantonsrates (GOKR)</t>
-  </si>
-  <si>
-    <t>1: Verfassungsinitiative für ein sicheres, direktes und durchgehendes Veloverkehrsnetz im Kanton Zug bis 2030 (Zuger Velonetz-Initiative)</t>
-  </si>
-  <si>
-    <t>2a: Verfassungsinitiative für die Offenlegung der Politikfinanzierung (Transparenz-Initiative)</t>
-  </si>
-  <si>
-    <t>2b: Gegenvorschlag zur Verfassungsinitiative für die Offenlegung der Politikfinanzierung (Transparenz-Initiative)</t>
-  </si>
-  <si>
-    <t>2c: Stichfrage zur Verfassungsinitiative für die Offenlegung der Politikfinanzierung (Transparenz-Initiative)</t>
-  </si>
-  <si>
-    <t>Initiative «Für bürgernahe öffentliche Spitalnotaufnahme 24/24» und Gegenvorschlag</t>
-  </si>
-  <si>
-    <t>Gegenvorschlag der Behörden</t>
-  </si>
-  <si>
-    <t>Falls sowohl die Initiative als auch der Gegenvorschlag angenommen werden, soll die Initiative oder der Gegenvorschlag in Kraft treten?</t>
-  </si>
-  <si>
-    <t>Finanzhilfe des Staates für das freiburger spital HFR</t>
-  </si>
-  <si>
-    <t>Änderung des Energiegesetzes</t>
-  </si>
-  <si>
-    <t>Volksinitiative «Für eine lokale, sichere und günstige Energieversorgung (Solarinitiative)»</t>
-  </si>
-  <si>
-    <t>Verfassung des Kantons Aargau (Kurztitel und Klimaparagraf)</t>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>259247</t>
+  </si>
+  <si>
+    <t>259388</t>
+  </si>
+  <si>
+    <t>259395</t>
+  </si>
+  <si>
+    <t>258259</t>
+  </si>
+  <si>
+    <t>259426</t>
+  </si>
+  <si>
+    <t>259427</t>
+  </si>
+  <si>
+    <t>259387</t>
+  </si>
+  <si>
+    <t>259363</t>
+  </si>
+  <si>
+    <t>259446</t>
+  </si>
+  <si>
+    <t>259447</t>
+  </si>
+  <si>
+    <t>259448</t>
+  </si>
+  <si>
+    <t>259397</t>
+  </si>
+  <si>
+    <t>259399</t>
+  </si>
+  <si>
+    <t>259401</t>
+  </si>
+  <si>
+    <t>259432</t>
+  </si>
+  <si>
+    <t>259376</t>
+  </si>
+  <si>
+    <t>259456</t>
+  </si>
+  <si>
+    <t>259457</t>
+  </si>
+  <si>
+    <t>259405</t>
+  </si>
+  <si>
+    <t>Bildungsgesetz (Änderung vom 26. Februar 2024: Stipendien für vorläufig aufgenommene Ausländerinnen und Ausländer)</t>
+  </si>
+  <si>
+    <t>Änderung der Kantonsverfassung (Kantonswechsel der Gemeinde Moutier: Aufhebung der Amtsbezirke)</t>
+  </si>
+  <si>
+    <t>Konkordat über den Wechsel der Gemeinde Moutier zum Kanton Jura</t>
+  </si>
+  <si>
+    <t>Änderung des Steuergesetzes (Steuergesetzrevision 2025)</t>
+  </si>
+  <si>
+    <t>Teilrevision des Steuergesetzes (StG)</t>
+  </si>
+  <si>
+    <t>Energieverordnung des Kantons Uri</t>
+  </si>
+  <si>
+    <t>Ausgabenbewilligung für die Realisierung eines neuen Verwaltungs- und Sicherheitszentrums Kaltbach</t>
+  </si>
+  <si>
+    <t>Änderung der Kantonsverfassung betreffend Organisation und Verwaltung der Gemeinden</t>
+  </si>
+  <si>
+    <t>Verfassungsinitiative für die Offenlegung der Politikfinanzierung (Transparenz-Initiative)</t>
+  </si>
+  <si>
+    <t>Gegenvorschlag zur Verfassungsinitiative für die Offenlegung der Politikfinanzierung (Transparenz-Initiative)</t>
+  </si>
+  <si>
+    <t>Stichfrage zur Verfassungsinitiative für die Offenlegung der Politikfinanzierung (Transparenz-Initiative)</t>
+  </si>
+  <si>
+    <t>Gesetz über die Ergänzungsleistungen für Familien</t>
+  </si>
+  <si>
+    <t>Änderung der Verfassung des Kantons Solothurn (KV); Solothurnische Gebäudeversicherung</t>
+  </si>
+  <si>
+    <t>Anstellungsbehörde für die Staatsschreiberin oder den Staatsschreiber und ihre oder seine Stellvertretung: Änderung der Verfassung des Kantons Solothurn (KV)</t>
+  </si>
+  <si>
+    <t>Teilrevision Gesundheitsgesetz</t>
+  </si>
+  <si>
+    <t>Neubau Zivilschutz-Ausbildungszentrum Meiersboda, Churwalden</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Initiative « Pour des urgences hospitalières publiques 24/24 de proximité » et contre-projet</t>
-  </si>
-  <si>
-    <t>Contre-projet des autorités</t>
-  </si>
-  <si>
-    <t>Si l’initiative et le contre-projet sont acceptés, est-ce l’initiative ou le contre-projet qui doit entrer en vigueur ?</t>
-  </si>
-  <si>
-    <t>Soutien financier de l'Etat en faveur de l'hôpital fribourgeois HFR</t>
-  </si>
-  <si>
-    <t>Interdiction des symboles de haine dans les espaces publics</t>
-  </si>
-  <si>
-    <t>IN 189 « Une Vie ici, une Voix ici… Renforçons notre démocratie ! »</t>
-  </si>
-  <si>
-    <t>Loi modifiant la loi sur l’accueil préscolaire (LAPr)</t>
-  </si>
-  <si>
-    <t>Loi modifiant la loi sur la santé (LS)</t>
-  </si>
-  <si>
-    <t>Misure di compensazione per le rendite pensionistiche versate dall’Istituto di previdenza del Cantone Ticino</t>
-  </si>
-  <si>
-    <t>Riforma fiscale</t>
-  </si>
-  <si>
-    <t>Nuovo Palazzo di giustizia</t>
+    <t>Modification de la Constitution cantonale (transfert cantonal de la commune de Moutier : suppression des districts)</t>
+  </si>
+  <si>
+    <t>Concordat sur le transfert de la commune de Moutier au canton du Jura</t>
+  </si>
+  <si>
+    <t>Loi sur les prestations complémentaires pour les familles</t>
+  </si>
+  <si>
+    <t>Loi modifiant la loi sur l'imposition des personnes physiques (LIPP)</t>
+  </si>
+  <si>
+    <t>Loi modifiant la loi sur l'instruction publique (LIP)</t>
+  </si>
+  <si>
+    <t>Acte relatif à l'approbation du Concordat entre le Canton de Berne et la République et Canton du Jura concernant le transfert de la commune municipale de Moutier dans le canton du Jura et à l'abrogation de l'article 139 de la Constitution</t>
+  </si>
+  <si>
+    <t>Costruzione di un nuovo edificio per il centro di formazione della protezione civile Meiersboda, Churwalden</t>
   </si>
 </sst>
 </file>
@@ -252,16 +267,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -269,16 +284,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -286,183 +301,183 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
@@ -470,104 +485,104 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
